--- a/mbs-perturbation/greedy/welm/greedy_welm_tanh_results.xlsx
+++ b/mbs-perturbation/greedy/welm/greedy_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9845890410958904</v>
+        <v>0.975517890772128</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5701906412478336</v>
+        <v>0.4389664389664389</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9845626072041166</v>
+        <v>0.9774011299435028</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5424610051993067</v>
+        <v>0.6170710940825883</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9845758241500036</v>
+        <v>0.9764595103578154</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5563258232235702</v>
+        <v>0.5280187665245136</v>
       </c>
     </row>
   </sheetData>
